--- a/Document/RPG卡牌策划案.xlsx
+++ b/Document/RPG卡牌策划案.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>卡牌种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +347,128 @@
   </si>
   <si>
     <t>角色描述：无特殊效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月2号到5月7日任务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：游戏的基本操作：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拖动卡片，碰撞，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把牌放入手的位置（放入手的位置后不能继续拖动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>背包），或者背包。随机发牌。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月8号到5月7日任务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +476,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +503,14 @@
       <color theme="5" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -409,14 +540,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,163 +828,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" s="1" customFormat="1"/>
+    <row r="11" spans="1:1" s="1" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" s="1" customFormat="1"/>
+    <row r="15" spans="1:1" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" s="1" customFormat="1"/>
+    <row r="18" spans="1:1" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" s="1" customFormat="1"/>
+    <row r="21" spans="1:1" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" s="1" customFormat="1"/>
+    <row r="24" spans="1:1" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" s="1" customFormat="1"/>
+    <row r="27" spans="1:1" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" s="1" customFormat="1"/>
+    <row r="30" spans="1:1" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" s="1" customFormat="1"/>
+    <row r="33" spans="1:4" s="1" customFormat="1">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="1" customFormat="1">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="1" customFormat="1"/>
+    <row r="37" spans="1:4" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="1" customFormat="1"/>
+    <row r="39" spans="1:4" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -860,8 +992,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="1" customFormat="1"/>
+    <row r="41" spans="1:4" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -869,14 +1001,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="1" customFormat="1"/>
+    <row r="43" spans="1:4" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" s="1" customFormat="1"/>
+    <row r="45" spans="1:4" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -884,8 +1016,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" s="1" customFormat="1"/>
+    <row r="47" spans="1:4" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -893,279 +1025,320 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="1" customFormat="1"/>
+    <row r="49" spans="1:1" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" s="1" customFormat="1"/>
+    <row r="51" spans="1:1" s="1" customFormat="1">
       <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" s="1" customFormat="1">
       <c r="A52" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" s="1" customFormat="1"/>
+    <row r="54" spans="1:1" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" s="1" customFormat="1">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" s="1" customFormat="1">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" s="1" customFormat="1"/>
+    <row r="58" spans="1:1" s="1" customFormat="1">
       <c r="A58" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" s="1" customFormat="1"/>
+    <row r="60" spans="1:1" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" s="1" customFormat="1">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" s="1" customFormat="1">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" s="1" customFormat="1">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" s="1" customFormat="1"/>
+    <row r="65" spans="1:1" s="1" customFormat="1">
       <c r="A65" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" s="1" customFormat="1"/>
+    <row r="67" spans="1:1" s="1" customFormat="1">
       <c r="A67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" s="1" customFormat="1">
       <c r="A68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" s="1" customFormat="1">
       <c r="A69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" s="1" customFormat="1"/>
+    <row r="71" spans="1:1" s="1" customFormat="1">
       <c r="A71" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" s="1" customFormat="1">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" s="1" customFormat="1">
       <c r="A73" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" s="1" customFormat="1">
       <c r="A74" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" s="1" customFormat="1"/>
+    <row r="77" spans="1:1" s="1" customFormat="1">
       <c r="A77" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" s="1" customFormat="1"/>
+    <row r="80" spans="1:1" s="1" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" s="1" customFormat="1"/>
+    <row r="82" spans="1:1" s="1" customFormat="1">
       <c r="A82" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" s="1" customFormat="1"/>
+    <row r="84" spans="1:1" s="1" customFormat="1">
       <c r="A84" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" s="1" customFormat="1"/>
+    <row r="86" spans="1:1" s="1" customFormat="1">
       <c r="A86" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" s="1" customFormat="1"/>
+    <row r="88" spans="1:1" s="1" customFormat="1">
       <c r="A88" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" s="1" customFormat="1"/>
+    <row r="90" spans="1:1" s="1" customFormat="1">
       <c r="A90" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" s="1" customFormat="1"/>
+    <row r="92" spans="1:1" s="1" customFormat="1">
       <c r="A92" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" s="1" customFormat="1"/>
+    <row r="94" spans="1:1" s="1" customFormat="1">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" s="1" customFormat="1"/>
+    <row r="96" spans="1:1" s="1" customFormat="1">
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" s="1" customFormat="1"/>
+    <row r="98" spans="1:1" s="1" customFormat="1">
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" s="1" customFormat="1"/>
+    <row r="100" spans="1:1" s="1" customFormat="1">
       <c r="A100" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" s="1" customFormat="1"/>
+    <row r="102" spans="1:1" s="1" customFormat="1">
       <c r="A102" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" s="1" customFormat="1">
       <c r="A103" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" s="1" customFormat="1">
       <c r="A104" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" s="1" customFormat="1">
       <c r="A105" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" s="1" customFormat="1">
       <c r="A107" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" s="1" customFormat="1"/>
+    <row r="109" spans="1:1" s="1" customFormat="1">
       <c r="A109" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" s="1" customFormat="1">
       <c r="A110" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" s="1" customFormat="1">
       <c r="A111" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" s="1" customFormat="1">
       <c r="A112" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" s="1" customFormat="1"/>
+    <row r="114" spans="1:1" s="1" customFormat="1"/>
+    <row r="115" spans="1:1" s="1" customFormat="1">
       <c r="A115" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" s="1" customFormat="1">
       <c r="A116" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:1" s="1" customFormat="1"/>
+    <row r="118" spans="1:1" s="1" customFormat="1"/>
+    <row r="119" spans="1:1" s="1" customFormat="1"/>
+    <row r="120" spans="1:1" s="1" customFormat="1"/>
+    <row r="121" spans="1:1" s="1" customFormat="1"/>
+    <row r="122" spans="1:1" s="1" customFormat="1"/>
+    <row r="123" spans="1:1" s="1" customFormat="1"/>
+    <row r="124" spans="1:1" s="1" customFormat="1"/>
+    <row r="125" spans="1:1" s="1" customFormat="1"/>
+    <row r="126" spans="1:1" s="1" customFormat="1"/>
+    <row r="127" spans="1:1" s="1" customFormat="1"/>
+    <row r="128" spans="1:1" s="1" customFormat="1"/>
+    <row r="129" s="1" customFormat="1"/>
+    <row r="130" s="1" customFormat="1"/>
+    <row r="131" s="1" customFormat="1"/>
+    <row r="132" s="1" customFormat="1"/>
+    <row r="133" s="1" customFormat="1"/>
+    <row r="134" s="1" customFormat="1"/>
+    <row r="135" s="1" customFormat="1"/>
+    <row r="136" s="1" customFormat="1"/>
+    <row r="137" s="1" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/RPG卡牌策划案.xlsx
+++ b/Document/RPG卡牌策划案.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>卡牌种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,112 +371,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加配置文件配置工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：游戏的基本操作：</t>
+      <t>：游戏的基本操作： 拖动卡片，碰撞， 把牌放入手的位置（放入手的位置后不能继续拖动 背包），或者背包。随机发牌。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>拖动卡片，碰撞，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>把牌放入手的位置（放入手的位置后不能继续拖动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>背包），或者背包。随机发牌。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月8号到5月7日任务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示已分发的牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析随机数据，填充卡片信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立卡牌缓存池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁后，重新发牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,8 +460,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +497,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -537,18 +517,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -641,7 +631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -818,21 +808,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -1303,42 +1293,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="2" spans="1:5">
+      <c r="D2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>